--- a/大前端就业/LeetCode/水电费计算.xlsx
+++ b/大前端就业/LeetCode/水电费计算.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>差值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +60,34 @@
   </si>
   <si>
     <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止6.26电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止6.1电费（实际交的电费）（6.1 - 6.29还没交）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +131,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,11 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,6 +740,403 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>44659.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44645.25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>17041.32</v>
+      </c>
+      <c r="C3">
+        <v>16766.72</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>274.59999999999854</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>98.389179999999484</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3+F4</f>
+        <v>265.53861699999919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>18025.14</v>
+      </c>
+      <c r="C4">
+        <v>17725.75</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">B4-C4</f>
+        <v>299.38999999999942</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>167.14943699999969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>35066.46</v>
+      </c>
+      <c r="C5">
+        <v>34492.480000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>573.97999999999593</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="1">D5*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5554.9</v>
+      </c>
+      <c r="C7">
+        <v>5319.6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>235.29999999999927</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(E3+E4)/2</f>
+        <v>0.45830000000000004</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>107.83798999999968</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7</f>
+        <v>107.83798999999968</v>
+      </c>
+      <c r="H7" s="5">
+        <f>(D7/D5)</f>
+        <v>0.40994459737273242</v>
+      </c>
+      <c r="I7" s="6">
+        <f>(D7/D5)*J7</f>
+        <v>85.678420850901077</v>
+      </c>
+      <c r="J7" s="5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f>D5-D7</f>
+        <v>338.67999999999665</v>
+      </c>
+      <c r="E9">
+        <f>(E3+E4)/2</f>
+        <v>0.45830000000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G3-G7</f>
+        <v>157.70062699999951</v>
+      </c>
+      <c r="H9" s="5">
+        <f>(D9/D5)</f>
+        <v>0.59005540262726763</v>
+      </c>
+      <c r="I9" s="6">
+        <f>(D9/D5)*J9</f>
+        <v>123.32157914909894</v>
+      </c>
+      <c r="J9" s="5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>696.9</v>
+      </c>
+      <c r="C14">
+        <v>715</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>18.100000000000023</v>
+      </c>
+      <c r="E14" s="4">
+        <f>D14/D18</f>
+        <v>0.35420743639921753</v>
+      </c>
+      <c r="F14" s="4">
+        <f>E14*F18</f>
+        <v>32.516242661448167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1409</v>
+      </c>
+      <c r="C16">
+        <v>1442</v>
+      </c>
+      <c r="D16">
+        <f>C16-B16</f>
+        <v>33</v>
+      </c>
+      <c r="E16" s="4">
+        <f>D16/D18</f>
+        <v>0.64579256360078252</v>
+      </c>
+      <c r="F16" s="4">
+        <f>E16*F18</f>
+        <v>59.283757338551837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f>D14+D16</f>
+        <v>51.100000000000023</v>
+      </c>
+      <c r="F18">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>44659.25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44645.25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>17041.32</v>
+      </c>
+      <c r="C28">
+        <v>16766.72</v>
+      </c>
+      <c r="D28">
+        <f>B28-C28</f>
+        <v>274.59999999999854</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.4083</v>
+      </c>
+      <c r="F28">
+        <f>D28*E28</f>
+        <v>112.1191799999994</v>
+      </c>
+      <c r="G28" s="3">
+        <f>F28+F29</f>
+        <v>294.23811699999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>18025.14</v>
+      </c>
+      <c r="C29">
+        <v>17725.75</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D30" si="2">B29-C29</f>
+        <v>299.38999999999942</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="F29">
+        <f>D29*E29</f>
+        <v>182.11893699999962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>35066.46</v>
+      </c>
+      <c r="C30">
+        <v>34492.480000000003</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>573.97999999999593</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="3">D30*E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>5554.9</v>
+      </c>
+      <c r="C32">
+        <v>5319.6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="4">B32-C32</f>
+        <v>235.29999999999927</v>
+      </c>
+      <c r="E32" s="3">
+        <f>(E28+E29)/2</f>
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="5">D32*E32</f>
+        <v>119.60298999999962</v>
+      </c>
+      <c r="G32" s="3">
+        <f>F32</f>
+        <v>119.60298999999962</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f>D30-D32</f>
+        <v>338.67999999999665</v>
+      </c>
+      <c r="G34" s="3">
+        <f>G28-G32</f>
+        <v>174.63512699999939</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>

--- a/大前端就业/LeetCode/水电费计算.xlsx
+++ b/大前端就业/LeetCode/水电费计算.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>差值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>截止6.1电费（实际交的电费）（6.1 - 6.29还没交）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未缴纳的10天电费每天（388.6/50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1128,7 @@
         <v>119.60298999999962</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>D30-D32</f>
         <v>338.67999999999665</v>
@@ -1126,9 +1138,240 @@
         <v>174.63512699999939</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
+        <v>44659.25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44645.25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>17519.650000000001</v>
+      </c>
+      <c r="C41">
+        <v>17041.32</v>
+      </c>
+      <c r="D41">
+        <f>B41-C41</f>
+        <v>478.33000000000175</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.4083</v>
+      </c>
+      <c r="F41">
+        <f>D41*E41</f>
+        <v>195.30213900000072</v>
+      </c>
+      <c r="G41" s="3">
+        <f>F41+F42</f>
+        <v>390.86450600000171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>18346.63</v>
+      </c>
+      <c r="C42">
+        <v>18025.14</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D43" si="6">B42-C42</f>
+        <v>321.4900000000016</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="F42">
+        <f>D42*E42</f>
+        <v>195.56236700000096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>35866.480000000003</v>
+      </c>
+      <c r="C43">
+        <v>35066.46</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>800.02000000000407</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="7">D43*E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>5943.5</v>
+      </c>
+      <c r="C45">
+        <v>5554.9</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="8">B45-C45</f>
+        <v>388.60000000000036</v>
+      </c>
+      <c r="E45" s="3">
+        <f>(E41+E42)/2</f>
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="F45">
+        <f>D45*E45</f>
+        <v>197.52538000000018</v>
+      </c>
+      <c r="G45" s="3">
+        <f>F45</f>
+        <v>197.52538000000018</v>
+      </c>
+      <c r="H45" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>78</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="G48">
+        <f>D48*E48</f>
+        <v>39.647399999999998</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <f>D43-D45</f>
+        <v>411.42000000000371</v>
+      </c>
+      <c r="G50" s="3">
+        <f>G41-G45</f>
+        <v>193.33912600000153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>715</v>
+      </c>
+      <c r="C55">
+        <v>723.6</v>
+      </c>
+      <c r="D55">
+        <f>C55-B55</f>
+        <v>8.6000000000000227</v>
+      </c>
+      <c r="E55" s="4">
+        <f>D55/D59</f>
+        <v>0.31159420289855128</v>
+      </c>
+      <c r="F55" s="4">
+        <f>E55*F59</f>
+        <v>27.544927536231935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>1442</v>
+      </c>
+      <c r="C57">
+        <v>1461</v>
+      </c>
+      <c r="D57">
+        <f>C57-B57</f>
+        <v>19</v>
+      </c>
+      <c r="E57" s="4">
+        <f>D57/D59</f>
+        <v>0.68840579710144867</v>
+      </c>
+      <c r="F57" s="4">
+        <f>E57*F59</f>
+        <v>60.855072463768067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <f>D55+D57</f>
+        <v>27.600000000000023</v>
+      </c>
+      <c r="F59">
+        <v>88.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="H45:H48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
